--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7900,7 +7901,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -7916,6 +7916,3938 @@
       </c>
       <c r="H112" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>898.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>88.9901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.2886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>225.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.6539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.5103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.9949</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.5133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.8509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.8468</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.7642</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>58.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6133</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5898</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5704</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4329</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161837</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华大盘精选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3480</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3241</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2611</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2583</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2562</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2445</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1426</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9673</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9624</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9582</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8969</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8232</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6926</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159809</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时恒生沪深港通大湾区综合ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11853,4 +11854,3822 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>698.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>66.2848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>216.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.1993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.0434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.1906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9996</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.6970</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4500</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0791</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.9990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>52.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9975</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6802</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6455</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6385</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5697</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4876</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4529</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4323</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3862</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1261</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0794</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8290</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15672,4 +15673,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>168.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>202.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>131.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15681,7 +15682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15692,17 +15693,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15712,14 +15733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>168.38</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>676.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>61.7398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -15728,14 +15771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>202.09</v>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>199.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -15744,14 +15809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>209.22</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>196.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.2798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -15760,13 +15847,3571 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.5683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.3193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9848</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5442</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8311</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1646</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6957</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3400</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2977</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1651</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0515</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0481</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0030</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9961</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9276</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9226</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3823</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>162.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>168.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>202.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>83</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>131.36</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19310,7 +19311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19321,17 +19322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19341,14 +19362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D2" t="n">
-        <v>162.27</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>552.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>49.9659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19357,14 +19400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>168.38</v>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -19373,14 +19438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>202.09</v>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.9289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -19389,14 +19476,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>209.22</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>151.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -19405,13 +19514,3359 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>151.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.2958</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4844</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3607</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2654</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2349</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9832</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9563</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8739</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8264</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7793</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7668</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7199</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>54.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>54.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" t="n">
+        <v>162.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>168.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>202.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>83</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>131.36</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22749,7 +22750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22760,17 +22761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22780,14 +22801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.74</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>627.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>54.4922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -22796,14 +22839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>94</v>
-      </c>
-      <c r="D3" t="n">
-        <v>162.27</v>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.5669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -22812,14 +22877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>168.38</v>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.5915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -22828,14 +22915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>102</v>
-      </c>
-      <c r="D5" t="n">
-        <v>202.09</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -22844,14 +22953,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="n">
-        <v>209.22</v>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -22860,13 +22991,3979 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8970</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4878</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5600</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4376</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3542</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9891</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8279</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7341</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7341</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6189</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>60.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>方正富邦恒生沪深港通大湾区综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>183001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华全球核心优选(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n">
+        <v>127.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>121.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>162.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>168.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>202.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>83</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>131.36</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00388-香港交易所.xlsx
+++ b/数据整理/stocks/港股/00388-香港交易所.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>127.32</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>121.74</v>
+        <v>127.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>162.27</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>168.38</v>
+        <v>162.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>202.09</v>
+        <v>168.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>209.22</v>
+        <v>202.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>83</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>131.36</v>
       </c>
     </row>
@@ -600,6 +617,3364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>532.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>38.0602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达优质精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4891</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159976</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信湾创ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>56.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159983</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159984</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方粤港澳大湾区创新100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014153</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘华证沪深港长期竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014154</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘华证沪深港长期竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012068</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>56.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159978</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信中证沪港深粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发湾创100ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>167302</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦沪深港通大湾区综指（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4679,7 +8054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8117,7 +11492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11745,7 +15120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15563,7 +18938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19495,7 +22870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23762,7 +27137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
